--- a/biology/Botanique/Pycnanthemum_pilosum/Pycnanthemum_pilosum.xlsx
+++ b/biology/Botanique/Pycnanthemum_pilosum/Pycnanthemum_pilosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Menthe velue des montagnes, Menthe de montagne américaine
-Pycnanthemum pilosum, la Menthe velue des montagnes ou Menthe de montagne américaine, est une espèce de plantes herbacées vivaces de la famille des Lamiaceae[1] originaire d'Amérique du Nord.
+Pycnanthemum pilosum, la Menthe velue des montagnes ou Menthe de montagne américaine, est une espèce de plantes herbacées vivaces de la famille des Lamiaceae originaire d'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pycnanthemum pilosum est une plante herbacée vivace pouvant atteindre 120 cm de hauteur[2]. Elle a une odeur de menthe.
-Elle se propage à la fois par rhizomes et par graines[3]. La floraison a lieu de juillet à septembre[4].
-Cette plante est mellifère[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pycnanthemum pilosum est une plante herbacée vivace pouvant atteindre 120 cm de hauteur. Elle a une odeur de menthe.
+Elle se propage à la fois par rhizomes et par graines. La floraison a lieu de juillet à septembre.
+Cette plante est mellifère.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Menthe de montagne est endémique dans l'est et le centre des États-Unis[4]. En France métropolitaine, elle peut s'acclimater au climat sur tout le territoire.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Menthe de montagne est endémique dans l'est et le centre des États-Unis. En France métropolitaine, elle peut s'acclimater au climat sur tout le territoire.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Menthe de montagne peut être utilisée de la même manière que la menthe, en infusion, ou dans les desserts ou salades[1],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Menthe de montagne peut être utilisée de la même manière que la menthe, en infusion, ou dans les desserts ou salades,.
 </t>
         </is>
       </c>
